--- a/src/frameworkTest/TestData/Register-Login.xlsx
+++ b/src/frameworkTest/TestData/Register-Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shivani_Workspce\Projects\FrameworkTest\src\frameworkTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2434542B-B909-44DA-B9D4-A5D9787230FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B6A18F4-E9FC-462D-9898-50A318811D83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" xr2:uid="{DEAF03CC-E5F0-4808-8F04-2E9067AF2A72}"/>
   </bookViews>
@@ -108,10 +108,10 @@
     <t>9875674677</t>
   </si>
   <si>
-    <t>Ammy15</t>
-  </si>
-  <si>
-    <t>ammy51@gmail.com</t>
+    <t>ammy59@gmail.com</t>
+  </si>
+  <si>
+    <t>Ammy59</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
